--- a/LuBan/Datas/S_Skill.xlsx
+++ b/LuBan/Datas/S_Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32200" windowHeight="15370"/>
+    <workbookView windowHeight="17930"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -34,9 +34,6 @@
     <t>ColdTime</t>
   </si>
   <si>
-    <t>AttachStatus</t>
-  </si>
-  <si>
     <t>AttachEffect</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
     <t>float</t>
   </si>
   <si>
-    <t>bool</t>
-  </si>
-  <si>
     <t>(list#sep=,),int#ref=Skill.SkillEffectTable</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
     <t>冷却时间</t>
   </si>
   <si>
-    <t>附加状态</t>
-  </si>
-  <si>
     <t>附加效果</t>
   </si>
   <si>
@@ -104,9 +95,6 @@
   </si>
   <si>
     <t>1,2</t>
-  </si>
-  <si>
-    <t>火球术</t>
   </si>
 </sst>
 </file>
@@ -1114,22 +1102,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6363636363636" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="20.6363636363636" defaultRowHeight="16.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="20.6363636363636" style="2" customWidth="1"/>
     <col min="3" max="3" width="33" style="2" customWidth="1"/>
     <col min="4" max="4" width="49.2727272727273" style="2" customWidth="1"/>
     <col min="5" max="5" width="37.7272727272727" style="2" customWidth="1"/>
-    <col min="6" max="7" width="20.6363636363636" style="2" customWidth="1"/>
-    <col min="8" max="8" width="42.5454545454545" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.1818181818182" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="20.6363636363636" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.6363636363636" style="2" customWidth="1"/>
+    <col min="7" max="7" width="42.5454545454545" style="2" customWidth="1"/>
+    <col min="8" max="8" width="50.6363636363636" customWidth="1"/>
+    <col min="9" max="16383" width="20.6363636363636" style="2" customWidth="1"/>
+    <col min="16384" max="16384" width="20.6363636363636" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" spans="1:8">
@@ -1154,114 +1143,98 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="H1"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="18" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="H2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="18" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="18" spans="1:8">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:7">
+      <c r="A5" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" ht="17.25" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
-        <v>30</v>
+      <c r="G5" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/LuBan/Datas/S_Skill.xlsx
+++ b/LuBan/Datas/S_Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>##var</t>
   </si>
@@ -55,7 +55,7 @@
     <t>float</t>
   </si>
   <si>
-    <t>(list#sep=,),int#ref=Skill.SkillEffectTable</t>
+    <t>(list#sep=,),int#ref=Effect.EffectTable</t>
   </si>
   <si>
     <t>##group</t>
@@ -83,15 +83,6 @@
   </si>
   <si>
     <t>普攻1</t>
-  </si>
-  <si>
-    <t>主动技能</t>
-  </si>
-  <si>
-    <t>敌方</t>
-  </si>
-  <si>
-    <t>手动指定</t>
   </si>
   <si>
     <t>1,2</t>
@@ -1102,13 +1093,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6363636363636" defaultRowHeight="16.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="20.6363636363636" defaultRowHeight="16.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="20.6363636363636" style="2" customWidth="1"/>
     <col min="3" max="3" width="33" style="2" customWidth="1"/>
@@ -1116,12 +1107,11 @@
     <col min="5" max="5" width="37.7272727272727" style="2" customWidth="1"/>
     <col min="6" max="6" width="20.6363636363636" style="2" customWidth="1"/>
     <col min="7" max="7" width="42.5454545454545" style="2" customWidth="1"/>
-    <col min="8" max="8" width="50.6363636363636" customWidth="1"/>
-    <col min="9" max="16383" width="20.6363636363636" style="2" customWidth="1"/>
+    <col min="8" max="16383" width="20.6363636363636" style="2" customWidth="1"/>
     <col min="16384" max="16384" width="20.6363636363636" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="18" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1143,9 +1133,8 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="18" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1167,9 +1156,8 @@
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="18" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="18" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1191,9 +1179,8 @@
       <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="18" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="18" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1212,7 +1199,6 @@
       <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H4"/>
     </row>
     <row r="5" ht="17.25" spans="1:7">
       <c r="A5" s="2" t="s">
@@ -1221,20 +1207,12 @@
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/LuBan/Datas/S_Skill.xlsx
+++ b/LuBan/Datas/S_Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>##var</t>
   </si>
@@ -25,10 +25,7 @@
     <t>SkillSpellType</t>
   </si>
   <si>
-    <t>SkillAffectTargetType</t>
-  </si>
-  <si>
-    <t>SkillTargetSelectType</t>
+    <t>Condition</t>
   </si>
   <si>
     <t>ColdTime</t>
@@ -46,16 +43,13 @@
     <t>Skill.Enum.SkillSpellType</t>
   </si>
   <si>
-    <t>Skill.Enum.SkillAffectTargetType</t>
-  </si>
-  <si>
-    <t>Skill.Enum.SkillTargetSelectType</t>
+    <t>int#ref=Condition.ConditionTable</t>
   </si>
   <si>
     <t>float</t>
   </si>
   <si>
-    <t>(list#sep=,),int#ref=Effect.EffectTable</t>
+    <t>(list#sep=,),int#ref=Effect.EffectTable?</t>
   </si>
   <si>
     <t>##group</t>
@@ -70,9 +64,6 @@
     <t>技能类型</t>
   </si>
   <si>
-    <t>技能作用对象</t>
-  </si>
-  <si>
     <t>技能目标检测方式</t>
   </si>
   <si>
@@ -82,10 +73,22 @@
     <t>附加效果</t>
   </si>
   <si>
-    <t>普攻1</t>
+    <t>普攻</t>
+  </si>
+  <si>
+    <t>主动</t>
   </si>
   <si>
     <t>1,2</t>
+  </si>
+  <si>
+    <t>激光</t>
+  </si>
+  <si>
+    <t>火球术</t>
+  </si>
+  <si>
+    <t>炎爆</t>
   </si>
 </sst>
 </file>
@@ -1093,25 +1096,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6363636363636" defaultRowHeight="16.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="20.6363636363636" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="20.6363636363636" style="2" customWidth="1"/>
     <col min="3" max="3" width="33" style="2" customWidth="1"/>
-    <col min="4" max="4" width="49.2727272727273" style="2" customWidth="1"/>
-    <col min="5" max="5" width="37.7272727272727" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.6363636363636" style="2" customWidth="1"/>
-    <col min="7" max="7" width="42.5454545454545" style="2" customWidth="1"/>
-    <col min="8" max="16383" width="20.6363636363636" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.7272727272727" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.6363636363636" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42.5454545454545" style="2" customWidth="1"/>
+    <col min="7" max="16382" width="20.6363636363636" style="2" customWidth="1"/>
     <col min="16384" max="16384" width="20.6363636363636" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="18" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1130,89 +1132,130 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="18" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
+    <row r="3" s="1" customFormat="1" ht="18" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="18" spans="1:7">
-      <c r="A3" s="1" t="s">
+    <row r="4" s="1" customFormat="1" ht="18" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="18" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
+    <row r="5" ht="17.25" spans="1:6">
+      <c r="A5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" ht="17.25" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
